--- a/public/files/template/inventory/lap_bhp_ketersediaan.xlsx
+++ b/public/files/template/inventory/lap_bhp_ketersediaan.xlsx
@@ -191,9 +191,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -206,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -514,7 +514,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,22 +527,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -573,82 +573,82 @@
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>19</v>
       </c>
     </row>

--- a/public/files/template/inventory/lap_bhp_ketersediaan.xlsx
+++ b/public/files/template/inventory/lap_bhp_ketersediaan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="9210"/>
   </bookViews>
@@ -63,9 +68,6 @@
     <t>[a.no;block=tbs:row]</t>
   </si>
   <si>
-    <t>[a.jmlbaik]</t>
-  </si>
-  <si>
     <t>[a.harga]</t>
   </si>
   <si>
@@ -79,15 +81,18 @@
   </si>
   <si>
     <t>[a.uraian]</t>
+  </si>
+  <si>
+    <t>[a.jmlawal_opname]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -145,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,23 +173,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -198,14 +192,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -219,6 +213,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -267,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +297,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,6 +349,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,7 +545,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,18 +558,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,23 +664,23 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
